--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5" uniqueCount="5">
   <si>
     <t>7002</t>
   </si>
@@ -26,11 +26,14 @@
   <si>
     <t>7006</t>
   </si>
+  <si>
+    <t>7007</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -69,12 +72,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="true"/>
+    <col min="2" max="2" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -101,6 +107,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -13,12 +13,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>7002</t>
   </si>
   <si>
     <t>7003</t>
+  </si>
+  <si>
+    <t>7004</t>
+  </si>
+  <si>
+    <t>7006</t>
   </si>
 </sst>
 </file>
@@ -64,7 +70,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B3"/>
+  <dimension ref="A3:B6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.16796875" customWidth="true"/>
@@ -79,6 +85,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" uniqueCount="8">
   <si>
     <t>7002</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>7007</t>
+  </si>
+  <si>
+    <t>7008</t>
+  </si>
+  <si>
+    <t>7009</t>
+  </si>
+  <si>
+    <t>7010</t>
   </si>
 </sst>
 </file>
@@ -73,7 +82,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B7"/>
+  <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -115,6 +124,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>7002</t>
   </si>
@@ -38,11 +38,14 @@
   <si>
     <t>7010</t>
   </si>
+  <si>
+    <t>7011</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -88,8 +91,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="true"/>
-    <col min="2" max="2" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="5.16796875" customWidth="true"/>
+    <col min="2" max="2" width="2.16796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -142,10 +145,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10" uniqueCount="10">
   <si>
     <t>7002</t>
   </si>
@@ -41,11 +41,14 @@
   <si>
     <t>7011</t>
   </si>
+  <si>
+    <t>7022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -85,14 +88,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B10"/>
+  <dimension ref="A3:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="true"/>
+    <col min="2" max="2" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -151,6 +154,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>7002</t>
   </si>
@@ -44,11 +44,17 @@
   <si>
     <t>7022</t>
   </si>
+  <si>
+    <t>7023</t>
+  </si>
+  <si>
+    <t>7024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -63,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -72,13 +78,21 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -88,14 +102,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B22"/>
+  <dimension ref="A3:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="true"/>
-    <col min="2" max="2" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="5.15625" customWidth="true"/>
+    <col min="2" max="2" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -162,6 +176,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="0">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>7002</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>7024</t>
+  </si>
+  <si>
+    <t>7025</t>
+  </si>
+  <si>
+    <t>7025</t>
+  </si>
+  <si>
+    <t>7027</t>
+  </si>
+  <si>
+    <t>7028</t>
+  </si>
+  <si>
+    <t>7029</t>
+  </si>
+  <si>
+    <t>7030</t>
   </si>
 </sst>
 </file>
@@ -102,14 +120,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B24"/>
+  <dimension ref="A3:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.15625" customWidth="true"/>
-    <col min="2" max="2" width="2.15625" customWidth="true"/>
+    <col min="1" max="1" width="5.16796875" customWidth="true"/>
+    <col min="2" max="2" width="2.16796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -192,6 +210,46 @@
         <v>4</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20" uniqueCount="19">
   <si>
     <t>7002</t>
   </si>
@@ -67,12 +67,15 @@
   </si>
   <si>
     <t>7030</t>
+  </si>
+  <si>
+    <t>7033</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -120,14 +123,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B30"/>
+  <dimension ref="A3:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="true"/>
+    <col min="2" max="2" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -247,7 +250,15 @@
         <v>17</v>
       </c>
       <c r="B30" s="0">
-        <v>5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="22" uniqueCount="20">
   <si>
     <t>7002</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>7033</t>
+  </si>
+  <si>
+    <t>7038</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B33"/>
+  <dimension ref="A3:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -261,6 +264,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>7002</t>
   </si>
@@ -73,12 +73,57 @@
   </si>
   <si>
     <t>7038</t>
+  </si>
+  <si>
+    <t>7006</t>
+  </si>
+  <si>
+    <t>7006</t>
+  </si>
+  <si>
+    <t>7007</t>
+  </si>
+  <si>
+    <t>7008</t>
+  </si>
+  <si>
+    <t>7009</t>
+  </si>
+  <si>
+    <t>7010</t>
+  </si>
+  <si>
+    <t>7017</t>
+  </si>
+  <si>
+    <t>7022</t>
+  </si>
+  <si>
+    <t>7023</t>
+  </si>
+  <si>
+    <t>7024</t>
+  </si>
+  <si>
+    <t>7025</t>
+  </si>
+  <si>
+    <t>7030</t>
+  </si>
+  <si>
+    <t>7035</t>
+  </si>
+  <si>
+    <t>7039</t>
+  </si>
+  <si>
+    <t>7036</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -126,14 +171,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B38"/>
+  <dimension ref="A3:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="true"/>
-    <col min="2" max="2" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="5.15625" customWidth="true"/>
+    <col min="2" max="2" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -154,31 +199,31 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -186,15 +231,23 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0">
         <v>1</v>
@@ -202,15 +255,15 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0">
         <v>4</v>
@@ -218,10 +271,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -250,10 +303,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -264,6 +317,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0">
+        <v>1</v>
+      </c>
+    </row>
     <row r="38">
       <c r="A38" s="0" t="s">
         <v>19</v>
@@ -272,6 +341,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="42" uniqueCount="36">
   <si>
     <t>7002</t>
   </si>
@@ -118,12 +118,15 @@
   </si>
   <si>
     <t>7036</t>
+  </si>
+  <si>
+    <t>7040</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -171,22 +174,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B39"/>
+  <dimension ref="A2:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.15625" customWidth="true"/>
-    <col min="2" max="2" width="2.15625" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="true"/>
+    <col min="2" max="2" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -194,7 +205,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -349,6 +360,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>7002</t>
   </si>
@@ -118,6 +118,54 @@
   </si>
   <si>
     <t>7036</t>
+  </si>
+  <si>
+    <t>7040</t>
+  </si>
+  <si>
+    <t>7002</t>
+  </si>
+  <si>
+    <t>7004</t>
+  </si>
+  <si>
+    <t>7008</t>
+  </si>
+  <si>
+    <t>7010</t>
+  </si>
+  <si>
+    <t>7023</t>
+  </si>
+  <si>
+    <t>7024</t>
+  </si>
+  <si>
+    <t>7007</t>
+  </si>
+  <si>
+    <t>7033</t>
+  </si>
+  <si>
+    <t>7035</t>
+  </si>
+  <si>
+    <t>7038</t>
+  </si>
+  <si>
+    <t>7033</t>
+  </si>
+  <si>
+    <t>7035</t>
+  </si>
+  <si>
+    <t>7036</t>
+  </si>
+  <si>
+    <t>7038</t>
+  </si>
+  <si>
+    <t>7039</t>
   </si>
   <si>
     <t>7040</t>
@@ -126,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -180,16 +228,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="true"/>
-    <col min="2" max="2" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="5.15625" customWidth="true"/>
+    <col min="2" max="2" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -202,10 +250,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -218,15 +266,15 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0">
         <v>1</v>
@@ -242,7 +290,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0">
         <v>1</v>
@@ -266,18 +314,18 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -322,15 +370,15 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B35" s="0">
         <v>2</v>
@@ -338,7 +386,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B36" s="0">
         <v>1</v>
@@ -346,26 +394,26 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B39" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="42" uniqueCount="36">
   <si>
     <t>7002</t>
   </si>
@@ -118,54 +118,6 @@
   </si>
   <si>
     <t>7036</t>
-  </si>
-  <si>
-    <t>7040</t>
-  </si>
-  <si>
-    <t>7002</t>
-  </si>
-  <si>
-    <t>7004</t>
-  </si>
-  <si>
-    <t>7008</t>
-  </si>
-  <si>
-    <t>7010</t>
-  </si>
-  <si>
-    <t>7023</t>
-  </si>
-  <si>
-    <t>7024</t>
-  </si>
-  <si>
-    <t>7007</t>
-  </si>
-  <si>
-    <t>7033</t>
-  </si>
-  <si>
-    <t>7035</t>
-  </si>
-  <si>
-    <t>7038</t>
-  </si>
-  <si>
-    <t>7033</t>
-  </si>
-  <si>
-    <t>7035</t>
-  </si>
-  <si>
-    <t>7036</t>
-  </si>
-  <si>
-    <t>7038</t>
-  </si>
-  <si>
-    <t>7039</t>
   </si>
   <si>
     <t>7040</t>
@@ -174,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -228,16 +180,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.15625" customWidth="true"/>
-    <col min="2" max="2" width="2.15625" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="true"/>
+    <col min="2" max="2" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -250,10 +202,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -266,15 +218,15 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0">
         <v>1</v>
@@ -290,7 +242,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0">
         <v>1</v>
@@ -314,18 +266,18 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -370,15 +322,15 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B35" s="0">
         <v>2</v>
@@ -386,7 +338,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B36" s="0">
         <v>1</v>
@@ -394,26 +346,26 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B39" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B40" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>7002</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>7036</t>
+  </si>
+  <si>
+    <t>7040</t>
   </si>
   <si>
     <t>7040</t>
@@ -126,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -180,8 +183,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="true"/>
-    <col min="2" max="2" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="5.15625" customWidth="true"/>
+    <col min="2" max="2" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -362,10 +365,10 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/channelsremoved.xlsx
+++ b/channelsremoved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>7002</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>7040</t>
+  </si>
+  <si>
+    <t>7047</t>
+  </si>
+  <si>
+    <t>7048</t>
+  </si>
+  <si>
+    <t>7049</t>
+  </si>
+  <si>
+    <t>7050</t>
   </si>
 </sst>
 </file>
@@ -177,7 +189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B40"/>
+  <dimension ref="A2:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -371,6 +383,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>